--- a/Documentación/cronograma.xlsx
+++ b/Documentación/cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\Octavo Semestre\Computacion Grafica\ProyFinal\ProyectoCG\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034A4E2A-A0C2-4497-89F7-323B82642EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9CBD83-06B9-4941-9F0F-E319477F69FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A81C6D7D-8F9D-47F5-B466-7877C279A443}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="25">
   <si>
     <t>Cronograma de actividades</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Todo el equipo</t>
-  </si>
-  <si>
-    <t>Implementación de toroide</t>
   </si>
   <si>
     <t>Adición de luces</t>
@@ -477,94 +474,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6E7E03-6D1C-4CA1-87FF-7067265402C9}">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,168 +898,168 @@
     <col min="13" max="27" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="8" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:27" s="30" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="13"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="37"/>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="14">
+      <c r="A3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="8">
         <v>4</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="9">
         <v>5</v>
       </c>
-      <c r="G3" s="15">
-        <v>6</v>
-      </c>
-      <c r="H3" s="15">
+      <c r="G3" s="9">
+        <v>6</v>
+      </c>
+      <c r="H3" s="9">
         <v>7</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="9">
         <v>8</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="9">
         <v>9</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="9">
         <v>10</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="9">
         <v>11</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="10">
         <v>12</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="9">
         <v>13</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="9">
         <v>14</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="9">
         <v>15</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="9">
         <v>16</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="9">
         <v>17</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="9">
         <v>18</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="9">
         <v>19</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="9">
         <v>20</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="9">
         <v>21</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="9">
         <v>22</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="9">
         <v>23</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Y3" s="9">
         <v>24</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="Z3" s="9">
         <v>25</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="11">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="14">
         <v>44685</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="15">
         <v>44686</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="32"/>
+      <c r="E4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="24"/>
     </row>
     <row r="5" spans="1:27" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1071,8 +1068,8 @@
       <c r="C5" s="5">
         <v>44685</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="25" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1114,10 +1111,10 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="26"/>
+      <c r="AA5" s="18"/>
     </row>
     <row r="6" spans="1:27" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1126,10 +1123,10 @@
       <c r="C6" s="5">
         <v>44685</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="17">
         <v>44685</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="4"/>
@@ -1155,10 +1152,10 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="26"/>
+      <c r="AA6" s="18"/>
     </row>
     <row r="7" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1167,10 +1164,10 @@
       <c r="C7" s="5">
         <v>44685</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="17">
         <v>44692</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="26" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -1218,10 +1215,10 @@
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="26"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="1:27" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1230,10 +1227,10 @@
       <c r="C8" s="5">
         <v>44691</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="17">
         <v>44692</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1259,10 +1256,10 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="26"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" spans="1:27" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1271,10 +1268,10 @@
       <c r="C9" s="5">
         <v>44689</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="17">
         <v>44693</v>
       </c>
-      <c r="E9" s="35"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1314,10 +1311,10 @@
         <v>6</v>
       </c>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="26"/>
+      <c r="AA9" s="18"/>
     </row>
     <row r="10" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1326,10 +1323,10 @@
       <c r="C10" s="5">
         <v>44690</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="17">
         <v>44693</v>
       </c>
-      <c r="E10" s="35"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1369,10 +1366,10 @@
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-      <c r="AA10" s="26"/>
+      <c r="AA10" s="18"/>
     </row>
     <row r="11" spans="1:27" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1381,10 +1378,10 @@
       <c r="C11" s="5">
         <v>44686</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="17">
         <v>44691</v>
       </c>
-      <c r="E11" s="35"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1410,10 +1407,10 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="26"/>
+      <c r="AA11" s="18"/>
     </row>
     <row r="12" spans="1:27" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1422,10 +1419,10 @@
       <c r="C12" s="5">
         <v>44689</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="17">
         <v>44690</v>
       </c>
-      <c r="E12" s="35"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1451,10 +1448,10 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="26"/>
+      <c r="AA12" s="18"/>
     </row>
     <row r="13" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1463,10 +1460,10 @@
       <c r="C13" s="5">
         <v>44690</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="17">
         <v>44693</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1508,10 +1505,10 @@
         <v>6</v>
       </c>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="26"/>
+      <c r="AA13" s="18"/>
     </row>
     <row r="14" spans="1:27" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1520,10 +1517,10 @@
       <c r="C14" s="5">
         <v>44691</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="17">
         <v>44693</v>
       </c>
-      <c r="E14" s="35"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1559,10 +1556,10 @@
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="26"/>
+      <c r="AA14" s="18"/>
     </row>
     <row r="15" spans="1:27" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1571,10 +1568,10 @@
       <c r="C15" s="5">
         <v>44693</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="17">
         <v>44693</v>
       </c>
-      <c r="E15" s="35"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1598,16 +1595,18 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
-      <c r="AA15" s="26"/>
-    </row>
-    <row r="16" spans="1:27" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="AA15" s="18"/>
+    </row>
+    <row r="16" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="35"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="26" t="s">
+        <v>6</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1625,85 +1624,55 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
+      <c r="W16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-      <c r="AA16" s="26"/>
-    </row>
-    <row r="17" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="AA16" s="18"/>
+    </row>
+    <row r="17" spans="1:27" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="26"/>
-    </row>
-    <row r="18" spans="1:27" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="W18" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="29"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="W17" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="21"/>
+    </row>
+    <row r="18" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
@@ -1719,9 +1688,6 @@
     </row>
     <row r="23" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
